--- a/Recruitment_Task/Data/Config.xlsx
+++ b/Recruitment_Task/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UiPath\Recruitment_Task\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95DFB991-D3B0-4EB3-93F5-BB75F5A53497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20770F36-01C6-43DB-A358-748C61D15572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1725" yWindow="4725" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -553,7 +553,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1679,7 +1679,7 @@
   <dimension ref="A1:Z987"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>

--- a/Recruitment_Task/Data/Config.xlsx
+++ b/Recruitment_Task/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UiPath\Recruitment_Task\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20770F36-01C6-43DB-A358-748C61D15572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D4FBB8-4EE7-4F1C-B3B0-BBDBB9CF393C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1725" yWindow="4725" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -553,7 +553,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1679,7 +1679,7 @@
   <dimension ref="A1:Z987"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>

--- a/Recruitment_Task/Data/Config.xlsx
+++ b/Recruitment_Task/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UiPath\Recruitment_Task\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D4FBB8-4EE7-4F1C-B3B0-BBDBB9CF393C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520BD9C2-769E-4C59-8CD8-0411AF123F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -552,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1678,8 +1678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z987"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
